--- a/InputData/trans/EoDfVUwFC/Elast of Demand for Veh Use wrt Fuel Cost.xlsx
+++ b/InputData/trans/EoDfVUwFC/Elast of Demand for Veh Use wrt Fuel Cost.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\EoDfVUwFC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\trans\EoDfVUwFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12EA52A-DC25-4865-8CB6-18F4B4FD854C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13935"/>
+    <workbookView xWindow="20745" yWindow="315" windowWidth="25935" windowHeight="22050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -18,12 +19,23 @@
     <sheet name="Rail and Ships" sheetId="3" r:id="rId4"/>
     <sheet name="EoDfVUwFC" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>Elasticity of Demand for Air Travel WRT to Price</t>
   </si>
@@ -235,12 +247,6 @@
     <t>EoDfVUwFC Elasticity of Demand for Vehicle Use wrt Fuel Cost</t>
   </si>
   <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>aircraft</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -250,14 +256,53 @@
     <t>in VMT as a fraction of the change in fuel cost. E.g. for a 1% increase in fuel cost per mile, VMT changes by -0.1%.</t>
   </si>
   <si>
-    <t>Elasticity (dimensionless)</t>
+    <t>passenger LDVs</t>
+  </si>
+  <si>
+    <t>passenger HDVs</t>
+  </si>
+  <si>
+    <t>passenger aircraft</t>
+  </si>
+  <si>
+    <t>passenger rail</t>
+  </si>
+  <si>
+    <t>passenger ships</t>
+  </si>
+  <si>
+    <t>passenger motorbikes</t>
+  </si>
+  <si>
+    <t>freight LDVs</t>
+  </si>
+  <si>
+    <t>freight HDVs</t>
+  </si>
+  <si>
+    <t>freight aircraft</t>
+  </si>
+  <si>
+    <t>freight rail</t>
+  </si>
+  <si>
+    <t>freight ships</t>
+  </si>
+  <si>
+    <t>freight motorbikes</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless (elasticity)</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +322,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -315,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -335,8 +388,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -618,12 +674,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -830,27 +884,27 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B21" r:id="rId1"/>
-    <hyperlink ref="B28" r:id="rId2"/>
-    <hyperlink ref="B35" r:id="rId3"/>
-    <hyperlink ref="B42" r:id="rId4"/>
-    <hyperlink ref="B14" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B28" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B35" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B42" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
@@ -858,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -908,7 +962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -986,7 +1040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1287,33 +1341,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>75</v>
+      <c r="A1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="B2" s="9">
         <f>'LDVs and HDVs'!B6</f>
@@ -1322,7 +1374,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <f>'LDVs and HDVs'!B7</f>
@@ -1331,7 +1383,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B4" s="9">
         <f>Aircraft!B7</f>
@@ -1340,7 +1392,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <f>'Rail and Ships'!B22</f>
@@ -1349,7 +1401,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <f>'Rail and Ships'!B23</f>
@@ -1358,10 +1410,64 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B7" s="9">
         <f>B2</f>
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="9">
+        <f>B2</f>
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="9">
+        <f t="shared" ref="B9:B13" si="0">B3</f>
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.29360000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="9">
+        <f t="shared" si="0"/>
         <v>-0.1</v>
       </c>
     </row>
